--- a/output_additional_column/1971.xlsx
+++ b/output_additional_column/1971.xlsx
@@ -490,7 +490,7 @@
         <v>55635</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="3">
@@ -514,7 +514,7 @@
         <v>25721</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="4">
@@ -538,7 +538,7 @@
         <v>38590</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
         <v>22804</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="6">
@@ -586,7 +586,7 @@
         <v>16626</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="7">
@@ -610,7 +610,7 @@
         <v>64795</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="8">
@@ -634,7 +634,7 @@
         <v>35178</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         <v>30372</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="10">
@@ -682,7 +682,7 @@
         <v>10245</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>43824</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="12">
@@ -730,7 +730,7 @@
         <v>65808</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="13">
@@ -754,7 +754,7 @@
         <v>49505</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="14">
@@ -778,7 +778,7 @@
         <v>32011</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="15">
@@ -802,7 +802,7 @@
         <v>36230</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="16">
@@ -826,7 +826,7 @@
         <v>49269</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="17">
@@ -850,7 +850,7 @@
         <v>78642</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="18">
@@ -874,7 +874,7 @@
         <v>60504</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="19">
@@ -898,7 +898,7 @@
         <v>71499</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="20">
@@ -922,7 +922,7 @@
         <v>26850</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="21">
@@ -946,7 +946,7 @@
         <v>31632</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="22">
@@ -970,7 +970,7 @@
         <v>73691</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="23">
@@ -994,7 +994,7 @@
         <v>46463</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="24">
@@ -1018,7 +1018,7 @@
         <v>54690</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="25">
@@ -1042,7 +1042,7 @@
         <v>35178</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="26">
@@ -1066,7 +1066,7 @@
         <v>72258</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="27">
@@ -1090,7 +1090,7 @@
         <v>56850</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>42835</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="29">
@@ -1138,7 +1138,7 @@
         <v>45684</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="30">
@@ -1162,7 +1162,7 @@
         <v>32892</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="31">
@@ -1186,7 +1186,7 @@
         <v>71796</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="32">
@@ -1210,7 +1210,7 @@
         <v>55239</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="33">
@@ -1234,7 +1234,7 @@
         <v>42767</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="34">
@@ -1258,7 +1258,7 @@
         <v>80573</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="35">
@@ -1282,7 +1282,7 @@
         <v>38196</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="36">
@@ -1306,7 +1306,7 @@
         <v>74538</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="37">
@@ -1330,7 +1330,7 @@
         <v>91700</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="38">
@@ -1354,7 +1354,7 @@
         <v>37126</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="39">
@@ -1378,7 +1378,7 @@
         <v>32892</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="40">
@@ -1402,7 +1402,7 @@
         <v>36715</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="41">
@@ -1426,7 +1426,7 @@
         <v>71819</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="42">
@@ -1450,7 +1450,7 @@
         <v>26954</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="43">
@@ -1474,7 +1474,7 @@
         <v>44421</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="44">
@@ -1498,7 +1498,7 @@
         <v>64722</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="45">
@@ -1522,7 +1522,7 @@
         <v>1730</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="46">
@@ -1546,7 +1546,7 @@
         <v>66303</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="47">
@@ -1570,7 +1570,7 @@
         <v>49118</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="48">
@@ -1594,7 +1594,7 @@
         <v>52531</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="49">
@@ -1618,7 +1618,7 @@
         <v>22804</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="50">
@@ -1642,7 +1642,7 @@
         <v>157733</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="51">
@@ -1666,7 +1666,7 @@
         <v>33316</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="52">
@@ -1690,7 +1690,7 @@
         <v>57420</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="53">
@@ -1714,7 +1714,7 @@
         <v>78041</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="54">
@@ -1738,7 +1738,7 @@
         <v>43300</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="55">
@@ -1762,7 +1762,7 @@
         <v>60585</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="56">
@@ -1786,7 +1786,7 @@
         <v>78931</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="57">
@@ -1810,7 +1810,7 @@
         <v>69930</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="58">
@@ -1834,7 +1834,7 @@
         <v>71969</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="59">
@@ -1858,7 +1858,7 @@
         <v>76445</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="60">
@@ -1882,7 +1882,7 @@
         <v>18793</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="61">
@@ -1906,7 +1906,7 @@
         <v>47111</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="62">
@@ -1930,7 +1930,7 @@
         <v>38232</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="63">
@@ -1954,7 +1954,7 @@
         <v>58350</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="64">
@@ -1978,7 +1978,7 @@
         <v>42033</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="65">
@@ -2002,7 +2002,7 @@
         <v>42403</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="66">
@@ -2026,7 +2026,7 @@
         <v>30372</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="67">
@@ -2050,7 +2050,7 @@
         <v>39763</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="68">
@@ -2074,7 +2074,7 @@
         <v>34600</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="69">
@@ -2098,7 +2098,7 @@
         <v>44635</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="70">
@@ -2122,7 +2122,7 @@
         <v>33316</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="71">
@@ -2146,7 +2146,7 @@
         <v>74290</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="72">
@@ -2170,7 +2170,7 @@
         <v>70886</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="73">
@@ -2194,7 +2194,7 @@
         <v>30538</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="74">
@@ -2218,7 +2218,7 @@
         <v>86979</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="75">
@@ -2242,7 +2242,7 @@
         <v>29819</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="76">
@@ -2266,7 +2266,7 @@
         <v>60491</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="77">
@@ -2290,7 +2290,7 @@
         <v>80573</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="78">
@@ -2314,7 +2314,7 @@
         <v>34600</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="79">
@@ -2338,7 +2338,7 @@
         <v>54690</v>
       </c>
       <c r="F79" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="80">
@@ -2362,7 +2362,7 @@
         <v>39791</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="81">
@@ -2386,7 +2386,7 @@
         <v>37150</v>
       </c>
       <c r="F81" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="82">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E82" t="inlineStr"/>
       <c r="F82" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="83">
@@ -2432,7 +2432,7 @@
         <v>34109</v>
       </c>
       <c r="F83" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="84">
@@ -2456,7 +2456,7 @@
         <v>25818</v>
       </c>
       <c r="F84" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="85">
@@ -2480,7 +2480,7 @@
         <v>35788</v>
       </c>
       <c r="F85" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="86">
@@ -2504,7 +2504,7 @@
         <v>29732</v>
       </c>
       <c r="F86" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="87">
@@ -2528,7 +2528,7 @@
         <v>52914</v>
       </c>
       <c r="F87" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
     <row r="88">
@@ -2552,7 +2552,7 @@
         <v>40851</v>
       </c>
       <c r="F88" s="2" t="n">
-        <v>44703.76711149398</v>
+        <v>44703.79033086298</v>
       </c>
     </row>
   </sheetData>
